--- a/indicator_definitions_updated.xlsx
+++ b/indicator_definitions_updated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leathing\Documents\L_data2\Extension\DSPG Housing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cornd\OneDrive\Documents\GitHub\CED-Housing\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B99954-6413-40CD-AB95-61560ED0D563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indicators" sheetId="1" r:id="rId1"/>
@@ -71,9 +72,6 @@
     <t>T</t>
   </si>
   <si>
-    <t>Description?</t>
-  </si>
-  <si>
     <t>Percent_515Properties</t>
   </si>
   <si>
@@ -555,12 +553,15 @@
   </si>
   <si>
     <t>Percentage of the population with income below the poverty level</t>
+  </si>
+  <si>
+    <t>HUD Section 8 funded units as a percentage of total housing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -872,26 +873,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="57.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -923,7 +926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -931,10 +934,10 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -946,16 +949,16 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -963,31 +966,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
       </c>
       <c r="I3" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -995,7 +998,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -1007,91 +1010,91 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="I4" t="s">
         <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>30</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>31</v>
       </c>
-      <c r="J5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>34</v>
       </c>
-      <c r="I6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
         <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1103,187 +1106,187 @@
         <v>14</v>
       </c>
       <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
         <v>38</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>39</v>
       </c>
-      <c r="J7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
         <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
       </c>
       <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
         <v>43</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>44</v>
       </c>
-      <c r="J8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
         <v>46</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
         <v>47</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>48</v>
       </c>
-      <c r="I9" t="s">
-        <v>49</v>
-      </c>
       <c r="J9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
         <v>50</v>
       </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" t="s">
-        <v>51</v>
-      </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
         <v>52</v>
       </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" t="s">
         <v>53</v>
       </c>
-      <c r="I11" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>55</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>56</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>57</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
         <v>58</v>
       </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>59</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
         <v>60</v>
       </c>
-      <c r="J12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1295,24 +1298,24 @@
         <v>14</v>
       </c>
       <c r="H13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" t="s">
         <v>62</v>
       </c>
-      <c r="I13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
         <v>55</v>
       </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -1324,27 +1327,27 @@
         <v>14</v>
       </c>
       <c r="H14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
         <v>64</v>
       </c>
-      <c r="I14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>65</v>
-      </c>
-      <c r="D15" t="s">
-        <v>66</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -1356,181 +1359,181 @@
         <v>14</v>
       </c>
       <c r="H15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
         <v>67</v>
       </c>
-      <c r="I15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>68</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
         <v>69</v>
       </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>70</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>71</v>
       </c>
-      <c r="J16" t="s">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>73</v>
       </c>
-      <c r="D17" t="s">
-        <v>74</v>
-      </c>
       <c r="E17" t="s">
         <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
       </c>
       <c r="H17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" t="s">
         <v>75</v>
       </c>
-      <c r="I17" t="s">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s">
-        <v>77</v>
-      </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
         <v>14</v>
       </c>
       <c r="H18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" t="s">
         <v>78</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>79</v>
       </c>
-      <c r="J18" t="s">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>81</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>82</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>83</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>84</v>
-      </c>
-      <c r="F19" t="s">
-        <v>85</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
       </c>
       <c r="H19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" t="s">
         <v>86</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
         <v>87</v>
       </c>
-      <c r="J19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" t="s">
-        <v>88</v>
-      </c>
       <c r="D20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" t="s">
         <v>83</v>
       </c>
-      <c r="E20" t="s">
-        <v>84</v>
-      </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
       </c>
       <c r="H20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" t="s">
         <v>89</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>90</v>
       </c>
-      <c r="J20" t="s">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>92</v>
       </c>
-      <c r="C21" t="s">
-        <v>93</v>
-      </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
@@ -1542,303 +1545,303 @@
         <v>14</v>
       </c>
       <c r="H21" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" t="s">
         <v>94</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>95</v>
       </c>
-      <c r="J21" t="s">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>97</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>98</v>
       </c>
-      <c r="C22" t="s">
-        <v>99</v>
-      </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s">
         <v>14</v>
       </c>
       <c r="H22" t="s">
+        <v>99</v>
+      </c>
+      <c r="I22" t="s">
         <v>100</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>101</v>
       </c>
-      <c r="J22" t="s">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" t="s">
-        <v>103</v>
-      </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
         <v>14</v>
       </c>
       <c r="H23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" t="s">
         <v>104</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" t="s">
         <v>105</v>
       </c>
-      <c r="J23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="D24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
         <v>97</v>
       </c>
-      <c r="B24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" t="s">
-        <v>108</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="C25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="E25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" t="s">
+        <v>111</v>
+      </c>
+      <c r="J25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" t="s">
+        <v>116</v>
+      </c>
+      <c r="J26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" t="s">
+        <v>120</v>
+      </c>
+      <c r="I27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E25" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" t="s">
-        <v>111</v>
-      </c>
-      <c r="I25" t="s">
-        <v>112</v>
-      </c>
-      <c r="J25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" t="s">
-        <v>116</v>
-      </c>
-      <c r="I26" t="s">
-        <v>117</v>
-      </c>
-      <c r="J26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" t="s">
-        <v>121</v>
-      </c>
-      <c r="I27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>12</v>
@@ -1850,27 +1853,27 @@
         <v>14</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C32" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>13</v>
@@ -1879,27 +1882,27 @@
         <v>14</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>13</v>
@@ -1908,27 +1911,27 @@
         <v>14</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>13</v>
@@ -1937,198 +1940,198 @@
         <v>14</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>12</v>
@@ -2140,53 +2143,53 @@
         <v>14</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>12</v>
@@ -2195,27 +2198,27 @@
         <v>13</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>12</v>
@@ -2224,27 +2227,27 @@
         <v>13</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>12</v>
@@ -2253,10 +2256,10 @@
         <v>13</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>8</v>

--- a/indicator_definitions_updated.xlsx
+++ b/indicator_definitions_updated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cornd\OneDrive\Documents\GitHub\CED-Housing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e053c53d61b8413/Documents/GitHub/CED-Housing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B99954-6413-40CD-AB95-61560ED0D563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{02B99954-6413-40CD-AB95-61560ED0D563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5832DE8D-9188-45B2-87D6-2189660F51AA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8988" yWindow="7956" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indicators" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="184">
   <si>
     <t>Group</t>
   </si>
@@ -453,12 +453,6 @@
     <t>Pct_PK12_enrollchg_10yr</t>
   </si>
   <si>
-    <t>Ann_pct_emp_chg_2010-19</t>
-  </si>
-  <si>
-    <t>Pct_emp_chg_2019-20</t>
-  </si>
-  <si>
     <t>Unemp_rate_2021</t>
   </si>
   <si>
@@ -556,16 +550,50 @@
   </si>
   <si>
     <t>HUD Section 8 funded units as a percentage of total housing</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Ann_pct_emp_chg_2010.19</t>
+  </si>
+  <si>
+    <t>Pct_emp_chg_2019.20</t>
+  </si>
+  <si>
+    <t>USDA 515-funded properties vs Total (%)</t>
+  </si>
+  <si>
+    <t>Long-term vacancy rate</t>
+  </si>
+  <si>
+    <t>LIHTC funded properties vs Total(%)</t>
+  </si>
+  <si>
+    <t>HUD Section 8 funded properties vs Total(%)</t>
+  </si>
+  <si>
+    <t>Single Family Home Construction Rate</t>
+  </si>
+  <si>
+    <t>ACS Vacancy Rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -591,9 +619,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -874,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -885,16 +914,17 @@
     <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="57.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="79.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -905,28 +935,31 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -936,29 +969,32 @@
       <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -969,28 +1005,31 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1001,28 +1040,31 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" t="s">
-        <v>176</v>
-      </c>
       <c r="I4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1032,29 +1074,29 @@
       <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>29</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>30</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1064,26 +1106,26 @@
       <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>33</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1093,29 +1135,29 @@
       <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>37</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>38</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1125,29 +1167,29 @@
       <c r="C8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>36</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
       <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
         <v>41</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>14</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>42</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>43</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1157,29 +1199,29 @@
       <c r="C9" t="s">
         <v>46</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>47</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>48</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1189,29 +1231,29 @@
       <c r="C10" t="s">
         <v>49</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
         <v>21</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>50</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>48</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1221,29 +1263,29 @@
       <c r="C11" t="s">
         <v>51</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
         <v>21</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>52</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>48</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -1253,29 +1295,32 @@
       <c r="C12" t="s">
         <v>56</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" t="s">
         <v>57</v>
       </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
         <v>21</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>58</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>59</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -1285,26 +1330,26 @@
       <c r="C13" t="s">
         <v>60</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>57</v>
       </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
         <v>14</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>61</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -1315,28 +1360,31 @@
         <v>133</v>
       </c>
       <c r="D14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" t="s">
         <v>36</v>
       </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
         <v>14</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>63</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>62</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -1346,26 +1394,26 @@
       <c r="C15" t="s">
         <v>64</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>65</v>
       </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
         <v>14</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>66</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -1375,29 +1423,29 @@
       <c r="C16" t="s">
         <v>68</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>36</v>
       </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
         <v>21</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>69</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>70</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -1407,26 +1455,26 @@
       <c r="C17" t="s">
         <v>72</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>73</v>
       </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
       <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
         <v>41</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>14</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>74</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -1437,28 +1485,31 @@
         <v>76</v>
       </c>
       <c r="D18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" t="s">
         <v>73</v>
       </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
       <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
         <v>41</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>14</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>77</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>78</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -1468,29 +1519,29 @@
       <c r="C19" t="s">
         <v>81</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>82</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>83</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>84</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>14</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>85</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>86</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -1500,29 +1551,29 @@
       <c r="C20" t="s">
         <v>87</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>82</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>83</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>41</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>14</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>88</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>89</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -1532,29 +1583,29 @@
       <c r="C21" t="s">
         <v>92</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>36</v>
       </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
         <v>14</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>93</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>94</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>96</v>
       </c>
@@ -1564,29 +1615,29 @@
       <c r="C22" t="s">
         <v>98</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
       <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
         <v>41</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>14</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>99</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>100</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>96</v>
       </c>
@@ -1596,29 +1647,29 @@
       <c r="C23" t="s">
         <v>102</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="E23" t="s">
-        <v>12</v>
-      </c>
       <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
         <v>41</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>14</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>103</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>104</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -1628,26 +1679,26 @@
       <c r="C24" t="s">
         <v>105</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>106</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>83</v>
       </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
       <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s">
         <v>21</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>107</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -1657,29 +1708,29 @@
       <c r="C25" t="s">
         <v>130</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>109</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>83</v>
       </c>
-      <c r="F25" t="s">
-        <v>13</v>
-      </c>
       <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s">
         <v>21</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>110</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>111</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>96</v>
       </c>
@@ -1689,29 +1740,29 @@
       <c r="C26" t="s">
         <v>114</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>36</v>
       </c>
-      <c r="E26" t="s">
-        <v>12</v>
-      </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s">
         <v>21</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>115</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>116</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -1721,26 +1772,26 @@
       <c r="C27" t="s">
         <v>119</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>36</v>
       </c>
-      <c r="E27" t="s">
-        <v>12</v>
-      </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
         <v>21</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>120</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>96</v>
       </c>
@@ -1750,26 +1801,27 @@
       <c r="C28" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>96</v>
       </c>
@@ -1779,26 +1831,27 @@
       <c r="C29" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>96</v>
       </c>
@@ -1808,87 +1861,88 @@
       <c r="C30" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C31" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="I31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C32" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="E32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>138</v>
       </c>
@@ -1896,28 +1950,29 @@
         <v>139</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>157</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="G33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="I33" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>138</v>
       </c>
@@ -1925,28 +1980,28 @@
         <v>139</v>
       </c>
       <c r="C34" t="s">
-        <v>143</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="G34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="I34" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>138</v>
       </c>
@@ -1954,28 +2009,28 @@
         <v>139</v>
       </c>
       <c r="C35" t="s">
-        <v>144</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="G35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="I35" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>138</v>
       </c>
@@ -1983,28 +2038,28 @@
         <v>139</v>
       </c>
       <c r="C36" t="s">
-        <v>145</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="G36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="I36" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>138</v>
       </c>
@@ -2012,28 +2067,28 @@
         <v>139</v>
       </c>
       <c r="C37" t="s">
-        <v>146</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="I37" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>138</v>
       </c>
@@ -2041,57 +2096,57 @@
         <v>139</v>
       </c>
       <c r="C38" t="s">
-        <v>147</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="I38" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C39" t="s">
-        <v>148</v>
-      </c>
-      <c r="D39" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="I39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>138</v>
       </c>
@@ -2099,144 +2154,144 @@
         <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>149</v>
-      </c>
-      <c r="D40" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="I40" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C41" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="I41" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C42" t="s">
-        <v>151</v>
-      </c>
-      <c r="D42" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="I42" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C43" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="I43" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C44" t="s">
-        <v>153</v>
-      </c>
-      <c r="D44" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="I44" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>138</v>
       </c>
@@ -2244,24 +2299,24 @@
         <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>154</v>
-      </c>
-      <c r="D45" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="I45" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/indicator_definitions_updated.xlsx
+++ b/indicator_definitions_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e053c53d61b8413/Documents/GitHub/CED-Housing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{02B99954-6413-40CD-AB95-61560ED0D563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5832DE8D-9188-45B2-87D6-2189660F51AA}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{02B99954-6413-40CD-AB95-61560ED0D563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2121874-7DDD-4D39-BB58-918F42E67B91}"/>
   <bookViews>
-    <workbookView xWindow="-8988" yWindow="7956" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indicators" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="192">
   <si>
     <t>Group</t>
   </si>
@@ -577,6 +577,30 @@
   </si>
   <si>
     <t>ACS Vacancy Rate</t>
+  </si>
+  <si>
+    <t>PrcntChangeFMR2016_2020</t>
+  </si>
+  <si>
+    <t>PrcntChangeFMR2020_2022</t>
+  </si>
+  <si>
+    <t>PrcntChangeEmployWage2016_2020</t>
+  </si>
+  <si>
+    <t>PrcntChangeEmployTotal2016_2020</t>
+  </si>
+  <si>
+    <t>Percent Change of the Fair Market Rent of a 2 Bedroom Apartment from 2016 to 2020</t>
+  </si>
+  <si>
+    <t>Percent Change of the Fair Market Rent of a 2 Bedroom Apartment from 2020 to 2022</t>
+  </si>
+  <si>
+    <t>Percent Change of Wage and Salaried Employment from 2016 to 2020</t>
+  </si>
+  <si>
+    <t>Percent Change of Total and Salaried Employment from 2016 to 2020</t>
   </si>
 </sst>
 </file>
@@ -903,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2320,6 +2344,122 @@
         <v>8</v>
       </c>
     </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" t="s">
+        <v>184</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" t="s">
+        <v>185</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" t="s">
+        <v>187</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/indicator_definitions_updated.xlsx
+++ b/indicator_definitions_updated.xlsx
@@ -5,27 +5,37 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e053c53d61b8413/Documents/GitHub/CED-Housing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cornd\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{02B99954-6413-40CD-AB95-61560ED0D563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2121874-7DDD-4D39-BB58-918F42E67B91}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729809DF-B03D-439B-9D74-6F05F432DB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indicators" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="221">
   <si>
     <t>Group</t>
   </si>
@@ -36,12 +46,18 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Alias</t>
+  </si>
+  <si>
     <t>Source</t>
   </si>
   <si>
     <t>LowestGeo</t>
   </si>
   <si>
+    <t>DataPeriod</t>
+  </si>
+  <si>
     <t>Units</t>
   </si>
   <si>
@@ -54,15 +70,21 @@
     <t>Interpretation</t>
   </si>
   <si>
-    <t>Closely-related indicators</t>
-  </si>
-  <si>
     <t>Housing Assistance</t>
   </si>
   <si>
     <t>Assistance Program</t>
   </si>
   <si>
+    <t>Percent_515Properties</t>
+  </si>
+  <si>
+    <t>USDA 515 units rate</t>
+  </si>
+  <si>
+    <t>USDA</t>
+  </si>
+  <si>
     <t>Place</t>
   </si>
   <si>
@@ -72,21 +94,15 @@
     <t>T</t>
   </si>
   <si>
-    <t>Percent_515Properties</t>
-  </si>
-  <si>
-    <t>USDA</t>
-  </si>
-  <si>
     <t>USDA Section 515-funded units as a percentage of total housing units</t>
   </si>
   <si>
-    <t>Average days on market until sale</t>
-  </si>
-  <si>
     <t>PercentLIHTCperHousehold</t>
   </si>
   <si>
+    <t>LIHTC units rate</t>
+  </si>
+  <si>
     <t>HUD</t>
   </si>
   <si>
@@ -96,18 +112,24 @@
     <t>LIHTC-funded units as a percentage of total housing units</t>
   </si>
   <si>
-    <t>Eviction Incidence</t>
-  </si>
-  <si>
     <t>PercentMultiFamAssistPerHouseold</t>
   </si>
   <si>
+    <t>Multi-Family rate</t>
+  </si>
+  <si>
+    <t>Description?</t>
+  </si>
+  <si>
     <t>Demographic</t>
   </si>
   <si>
     <t>AverageEvictionFilingsPer1000Households</t>
   </si>
   <si>
+    <t>Average Eviction Filing</t>
+  </si>
+  <si>
     <t>IALegalAid</t>
   </si>
   <si>
@@ -120,12 +142,12 @@
     <t>A high eviction rate indicates stress between renters and landlords and possible need for eviction prevention programs</t>
   </si>
   <si>
-    <t>Percentage LIHTC-assisted units</t>
-  </si>
-  <si>
     <t>PercentChgEvictionFilings</t>
   </si>
   <si>
+    <t>Eviction Filing trend</t>
+  </si>
+  <si>
     <t>Percentage change in eviction filings since 2019</t>
   </si>
   <si>
@@ -135,120 +157,150 @@
     <t>MultiFamShare</t>
   </si>
   <si>
+    <t>Multi-Family share</t>
+  </si>
+  <si>
     <t>ACS</t>
   </si>
   <si>
+    <t>2016-20</t>
+  </si>
+  <si>
     <t>Percentage of housing units in multi-family structures</t>
   </si>
   <si>
     <t>A higher fraction of multi-family units may attract a more diverse mix of potential residents</t>
   </si>
   <si>
+    <t>RentalUnitRatio</t>
+  </si>
+  <si>
+    <t>Rental ratio</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Ratio of total rental units (including vacant) to the total number of households</t>
+  </si>
+  <si>
+    <t>A larger supply of rental units allows flexibility for households in transition</t>
+  </si>
+  <si>
+    <t>Program Loss</t>
+  </si>
+  <si>
+    <t>PercentHudSec8Lost5Year</t>
+  </si>
+  <si>
+    <t>5-year Section 8 rate</t>
+  </si>
+  <si>
+    <t>Estimated percentage of units with Section 8 projects expiring within 5 years</t>
+  </si>
+  <si>
+    <t>A higher percentage reflects greater imminent risk for loss of affordable housing</t>
+  </si>
+  <si>
+    <t>PercentLILost5Year</t>
+  </si>
+  <si>
+    <t>5-year LIHTC rate</t>
+  </si>
+  <si>
+    <t>Estimated percentage of units with LIHTC agreements expiring within 5 years</t>
+  </si>
+  <si>
+    <t>PercentUSDAsec515Lost5Year</t>
+  </si>
+  <si>
+    <t>5-year loan USDA 515 rate</t>
+  </si>
+  <si>
+    <t>Estimated percentage of assisted units with USDA Section 515 project loans maturing within 5 years</t>
+  </si>
+  <si>
+    <t>Physical Properties</t>
+  </si>
+  <si>
+    <t>Vacancy</t>
+  </si>
+  <si>
+    <t>PercentVacant36Month</t>
+  </si>
+  <si>
+    <t>Long-term vacancy rate</t>
+  </si>
+  <si>
+    <t>HUD-USPS</t>
+  </si>
+  <si>
+    <t>Percentage of units vacant longer than 36 months</t>
+  </si>
+  <si>
+    <t>Long vacancy periods may indicate units in poor condition or with other undesirable characteristics</t>
+  </si>
+  <si>
+    <t>TotalPercentVacant</t>
+  </si>
+  <si>
+    <t>Recent vacancy rate</t>
+  </si>
+  <si>
+    <t>Percentage of housing units with no occupants, most recent available</t>
+  </si>
+  <si>
+    <t>Areas with low vacancy rates offer fewer options for people seeking housing</t>
+  </si>
+  <si>
+    <t>ACSVacancyPercentage</t>
+  </si>
+  <si>
+    <t>5-year vacancy rate</t>
+  </si>
+  <si>
+    <t>Percentage of housing units with no occupants, recent 5-year average</t>
+  </si>
+  <si>
+    <t>TotalPercentVacant3</t>
+  </si>
+  <si>
+    <t>2020 Census vacancy rate</t>
+  </si>
+  <si>
+    <t>Decennial</t>
+  </si>
+  <si>
+    <t>Percentage of housing units with no occupants per the 2020 Census count</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>AgingHousingStock</t>
+  </si>
+  <si>
     <t>Aging housing stock</t>
   </si>
   <si>
-    <t>RentalUnitRatio</t>
-  </si>
-  <si>
-    <t>Ratio</t>
-  </si>
-  <si>
-    <t>Ratio of total rental units (including vacant) to the total number of households</t>
-  </si>
-  <si>
-    <t>A larger supply of rental units allows flexibility for households in transition</t>
-  </si>
-  <si>
-    <t>Home Ownership Rate</t>
-  </si>
-  <si>
-    <t>Program Loss</t>
-  </si>
-  <si>
-    <t>PercentHudSec8Lost5Year</t>
-  </si>
-  <si>
-    <t>Estimated percentage of units with Section 8 projects expiring within 5 years</t>
-  </si>
-  <si>
-    <t>A higher percentage reflects greater imminent risk for loss of affordable housing</t>
-  </si>
-  <si>
-    <t>PercentLILost5Year</t>
-  </si>
-  <si>
-    <t>Estimated percentage of units with LIHTC agreements expiring within 5 years</t>
-  </si>
-  <si>
-    <t>PercentUSDAsec515Lost5Year</t>
-  </si>
-  <si>
-    <t>Estimated percentage of assisted units with USDA Section 515 project loans maturing within 5 years</t>
-  </si>
-  <si>
-    <t>Percentage change in home values</t>
-  </si>
-  <si>
-    <t>Physical Properties</t>
-  </si>
-  <si>
-    <t>Vacancy</t>
-  </si>
-  <si>
-    <t>PercentVacant36Month</t>
-  </si>
-  <si>
-    <t>HUD-USPS</t>
-  </si>
-  <si>
-    <t>Percentage of units vacant longer than 36 months</t>
-  </si>
-  <si>
-    <t>Long vacancy periods may indicate units in poor condition or with other undesirable characteristics</t>
-  </si>
-  <si>
-    <t>TotalPercentVacant</t>
-  </si>
-  <si>
-    <t>Percentage of housing units with no occupants, most recent available</t>
-  </si>
-  <si>
-    <t>Areas with low vacancy rates offer fewer options for people seeking housing</t>
-  </si>
-  <si>
-    <t>Percentage of housing units with no occupants, recent 5-year average</t>
-  </si>
-  <si>
-    <t>TotalPercentVacant3</t>
-  </si>
-  <si>
-    <t>Decennial</t>
-  </si>
-  <si>
-    <t>Percentage of housing units with no occupants per the 2020 Census count</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>AgingHousingStock</t>
-  </si>
-  <si>
     <t>Percentage of housing units built before 1940</t>
   </si>
   <si>
     <t>Older homes may have higher maintenance costs and lower marketability than newer homes</t>
   </si>
   <si>
-    <t>Multi-famly share of housing</t>
-  </si>
-  <si>
     <t>MultiFamHomeConstructPct</t>
   </si>
   <si>
+    <t>Multi-family construction rate</t>
+  </si>
+  <si>
     <t>Census-BP</t>
   </si>
   <si>
+    <t>2017-21</t>
+  </si>
+  <si>
     <t>Average annual number of new units added per 1,000 existing units</t>
   </si>
   <si>
@@ -258,21 +310,24 @@
     <t>SingleFamHomeConstructPct</t>
   </si>
   <si>
+    <t>Single-family construction rate</t>
+  </si>
+  <si>
     <t>Average annual number of new homes added per 1,000 existing homes</t>
   </si>
   <si>
     <t>A higher construction rate indicates local optimism about housing demand and home values</t>
   </si>
   <si>
-    <t>Inventory of homes for sale</t>
-  </si>
-  <si>
     <t>House Stock</t>
   </si>
   <si>
     <t>DaysOnMarketUntilSale</t>
   </si>
   <si>
+    <t>Average days on market</t>
+  </si>
+  <si>
     <t>IARealAssoc</t>
   </si>
   <si>
@@ -291,30 +346,30 @@
     <t>InventoryOfHomesForSale</t>
   </si>
   <si>
+    <t>Single-family home inventory ratio</t>
+  </si>
+  <si>
     <t>Ratio of number of listings for single-family detached homes to total housing units</t>
   </si>
   <si>
     <t>A very low number suggests a tight supply that could deter potential buyers</t>
   </si>
   <si>
-    <t>Single family home construction rate</t>
-  </si>
-  <si>
     <t>Ownership</t>
   </si>
   <si>
     <t>HomeOwnerShipRate</t>
   </si>
   <si>
+    <t>Owner-occupied rate</t>
+  </si>
+  <si>
     <t>Percentage of households living in owner-occupied homes</t>
   </si>
   <si>
     <t>A higher percentage suggests community statiblity</t>
   </si>
   <si>
-    <t>Rental Unit Ratio</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
@@ -324,18 +379,21 @@
     <t>AffordabilityIndex</t>
   </si>
   <si>
+    <t>Affordability index</t>
+  </si>
+  <si>
     <t>Ratio comparing the median home value to median annual earnings</t>
   </si>
   <si>
     <t>A higher ratio suggests more home value per dollar of earnings</t>
   </si>
   <si>
-    <t>Median Home Values</t>
-  </si>
-  <si>
     <t>HousingPriceDispersion</t>
   </si>
   <si>
+    <t>Housing price dispersion</t>
+  </si>
+  <si>
     <t>Ratio comparing the upper and lower quartile values for owner-occupied homes</t>
   </si>
   <si>
@@ -345,15 +403,27 @@
     <t>X5YearPctChange</t>
   </si>
   <si>
+    <t>Housing price trend - FHFA</t>
+  </si>
+  <si>
     <t>FHFA</t>
   </si>
   <si>
+    <t>2016-21</t>
+  </si>
+  <si>
     <t>5-year percentage change in housing prices as measured by FHFA</t>
   </si>
   <si>
     <t>Rapidly rising housing prices reduce area affordability and may signal low availability of homes</t>
   </si>
   <si>
+    <t>ZillowHousePriceIndex</t>
+  </si>
+  <si>
+    <t>Housing price trend - Zillow</t>
+  </si>
+  <si>
     <t>Zillow</t>
   </si>
   <si>
@@ -363,36 +433,39 @@
     <t>Rapidly rising home values reduce area affordability and may signal low availability of homes</t>
   </si>
   <si>
-    <t>Projected loss of Section 515 units</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
     <t>CostBurdenOwner</t>
   </si>
   <si>
+    <t>Housing-burdened owner rate</t>
+  </si>
+  <si>
     <t>Percentage of owners with housing costs exceeding 30% of monthly income</t>
   </si>
   <si>
     <t>Housing cost-burdened households are more vulnerable to food insecurity and economic disruptions</t>
   </si>
   <si>
-    <t>Projected loss of LIHTC units</t>
-  </si>
-  <si>
     <t>Tenant</t>
   </si>
   <si>
     <t>CostBurdenRenter</t>
   </si>
   <si>
+    <t>Housing-burdened renter rate</t>
+  </si>
+  <si>
     <t>Percentage of renters with housing costs exceeding 30% of monthly income</t>
   </si>
   <si>
     <t>TypicalRenterCosts</t>
   </si>
   <si>
+    <t>Typical Renter Costs</t>
+  </si>
+  <si>
     <t>Dollars</t>
   </si>
   <si>
@@ -405,219 +478,236 @@
     <t>TypicalOwnerCosts</t>
   </si>
   <si>
+    <t>Typical Owner Costs</t>
+  </si>
+  <si>
     <t>Median selected owners costs</t>
   </si>
   <si>
     <t>MedianValue</t>
   </si>
   <si>
+    <t>Owner-occupied Median Value</t>
+  </si>
+  <si>
     <t>Median value of owner-occupied homes</t>
   </si>
   <si>
-    <t>Affordability Index</t>
-  </si>
-  <si>
-    <t>ZillowHousePriceIndex</t>
-  </si>
-  <si>
-    <t>Percent Sec 8 units</t>
-  </si>
-  <si>
-    <t>Total Percent Vacant for USPS Data</t>
-  </si>
-  <si>
-    <t>ACSVacancyPercentage</t>
-  </si>
-  <si>
-    <t>Housing Price Dispersion</t>
-  </si>
-  <si>
-    <t>Projected Loss of Section 8 units</t>
-  </si>
-  <si>
-    <t>ACS Vacancy Percentage</t>
-  </si>
-  <si>
-    <t>Percent Section 515 units</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Pct_popchg_10yr</t>
+  </si>
+  <si>
+    <t>10-year population trend</t>
+  </si>
+  <si>
+    <t>2010-20</t>
+  </si>
+  <si>
+    <t>10-year percentage change in total population</t>
+  </si>
+  <si>
+    <t>Pct_PK12_enrollchg_10yr</t>
+  </si>
+  <si>
+    <t>10-year PK-12 enrollment trend</t>
+  </si>
+  <si>
+    <t>IA_DOE</t>
+  </si>
+  <si>
+    <t>School District</t>
+  </si>
+  <si>
+    <t>2012-2022</t>
+  </si>
+  <si>
+    <t>10-year percentage change in PK-12 public school enrollment</t>
+  </si>
+  <si>
     <t>Economy</t>
   </si>
   <si>
-    <t>Pct_popchg_10yr</t>
-  </si>
-  <si>
-    <t>Pct_PK12_enrollchg_10yr</t>
+    <t>Ann_pct_emp_chg_2010-19</t>
+  </si>
+  <si>
+    <t>Average employment growth</t>
+  </si>
+  <si>
+    <t>BEA</t>
+  </si>
+  <si>
+    <t>2010-19</t>
+  </si>
+  <si>
+    <t>Average annual employment growth rate, 2010-19</t>
+  </si>
+  <si>
+    <t>Pct_emp_chg_2019-20</t>
+  </si>
+  <si>
+    <t>Employment change rate</t>
+  </si>
+  <si>
+    <t>2019-20</t>
+  </si>
+  <si>
+    <t>Percentage change in employment, 2019-20</t>
   </si>
   <si>
     <t>Unemp_rate_2021</t>
   </si>
   <si>
+    <t>Unemployment rate</t>
+  </si>
+  <si>
+    <t>BLS</t>
+  </si>
+  <si>
+    <t>Unemployed percentage of the labor force</t>
+  </si>
+  <si>
     <t>Pct_transfer_pmt_dependence</t>
   </si>
   <si>
+    <t>Government-dependent income rate</t>
+  </si>
+  <si>
+    <t>Percentage of personal income from government transfer payments</t>
+  </si>
+  <si>
     <t>Prop_tax_capacity_ratio</t>
   </si>
   <si>
+    <t>Property tax capacity</t>
+  </si>
+  <si>
+    <t>IA_DOM</t>
+  </si>
+  <si>
     <t>Prop_tax_effort_ratio</t>
   </si>
   <si>
+    <t>Property tax effort</t>
+  </si>
+  <si>
     <t>Diversity_index</t>
   </si>
   <si>
+    <t>Diversity index</t>
+  </si>
+  <si>
+    <t>Index of racial and ethnic diversity</t>
+  </si>
+  <si>
     <t>Gini_index_income_inequality_EST</t>
   </si>
   <si>
+    <t>Income inequality index</t>
+  </si>
+  <si>
+    <t>Index of income inequality</t>
+  </si>
+  <si>
     <t>Pct_prime_working_age_EST</t>
   </si>
   <si>
+    <t>Prime working age population share</t>
+  </si>
+  <si>
+    <t>Percentage of the population of prime working age (25-54 years)</t>
+  </si>
+  <si>
     <t>Old_age_dependency_ratio_EST</t>
   </si>
   <si>
+    <t>Elderly-to-working age population ratio</t>
+  </si>
+  <si>
+    <t>Ratio of elderly (65+ years) to working-age population</t>
+  </si>
+  <si>
     <t>Pct_language_barrier_EST</t>
   </si>
   <si>
+    <t>Linguistic-burdened rate</t>
+  </si>
+  <si>
+    <t>Percentage of the population speaking English less than "very well"</t>
+  </si>
+  <si>
     <t>Pct_disability_EST</t>
   </si>
   <si>
+    <t>Disability rate</t>
+  </si>
+  <si>
+    <t>Percentage of the population with a disability</t>
+  </si>
+  <si>
     <t>Pct_poverty_EST</t>
   </si>
   <si>
-    <t>Population</t>
-  </si>
-  <si>
-    <t>IA_DOE</t>
-  </si>
-  <si>
-    <t>BEA</t>
-  </si>
-  <si>
-    <t>BLS</t>
-  </si>
-  <si>
-    <t>IA_DOM</t>
-  </si>
-  <si>
-    <t>School District</t>
-  </si>
-  <si>
-    <t>10-year percentage change in total population</t>
-  </si>
-  <si>
-    <t>10-year percentage change in PK-12 public school enrollment</t>
-  </si>
-  <si>
-    <t>Average annual employment growth rate, 2010-19</t>
-  </si>
-  <si>
-    <t>Percentage change in employment, 2019-20</t>
-  </si>
-  <si>
-    <t>Unemployed percentage of the labor force</t>
-  </si>
-  <si>
-    <t>Percentage of personal income from government transfer payments</t>
-  </si>
-  <si>
-    <t>Property tax capacity</t>
-  </si>
-  <si>
-    <t>Property tax effort</t>
-  </si>
-  <si>
-    <t>Index of racial and ethnic diversity</t>
-  </si>
-  <si>
-    <t>Index of income inequality</t>
-  </si>
-  <si>
-    <t>Percentage of the population of prime working age (25-54 years)</t>
-  </si>
-  <si>
-    <t>Ratio of elderly (65+ years) to working-age population</t>
-  </si>
-  <si>
-    <t>Percentage of the population speaking English less than "very well"</t>
-  </si>
-  <si>
-    <t>Percentage of the population with a disability</t>
+    <t>Poverty rate</t>
   </si>
   <si>
     <t>Percentage of the population with income below the poverty level</t>
   </si>
   <si>
-    <t>HUD Section 8 funded units as a percentage of total housing</t>
-  </si>
-  <si>
-    <t>Alias</t>
-  </si>
-  <si>
-    <t>Ann_pct_emp_chg_2010.19</t>
-  </si>
-  <si>
-    <t>Pct_emp_chg_2019.20</t>
-  </si>
-  <si>
-    <t>USDA 515-funded properties vs Total (%)</t>
-  </si>
-  <si>
-    <t>Long-term vacancy rate</t>
-  </si>
-  <si>
-    <t>LIHTC funded properties vs Total(%)</t>
-  </si>
-  <si>
-    <t>HUD Section 8 funded properties vs Total(%)</t>
-  </si>
-  <si>
-    <t>Single Family Home Construction Rate</t>
-  </si>
-  <si>
-    <t>ACS Vacancy Rate</t>
-  </si>
-  <si>
     <t>PrcntChangeFMR2016_2020</t>
   </si>
   <si>
+    <t>Percent Change of the Fair Market Rent of a 2 Bedroom Apartment from 2016 to 2020</t>
+  </si>
+  <si>
     <t>PrcntChangeFMR2020_2022</t>
   </si>
   <si>
+    <t>Percent Change of the Fair Market Rent of a 2 Bedroom Apartment from 2020 to 2022</t>
+  </si>
+  <si>
     <t>PrcntChangeEmployWage2016_2020</t>
   </si>
   <si>
+    <t>Percent Change of Wage and Salaried Employment from 2016 to 2020</t>
+  </si>
+  <si>
     <t>PrcntChangeEmployTotal2016_2020</t>
   </si>
   <si>
-    <t>Percent Change of the Fair Market Rent of a 2 Bedroom Apartment from 2016 to 2020</t>
-  </si>
-  <si>
-    <t>Percent Change of the Fair Market Rent of a 2 Bedroom Apartment from 2020 to 2022</t>
-  </si>
-  <si>
-    <t>Percent Change of Wage and Salaried Employment from 2016 to 2020</t>
-  </si>
-  <si>
     <t>Percent Change of Total and Salaried Employment from 2016 to 2020</t>
+  </si>
+  <si>
+    <t>Percent Change of Fair Market Rent 2016-2020</t>
+  </si>
+  <si>
+    <t>Percent Change of Fair Market Rent 2020-2022</t>
+  </si>
+  <si>
+    <t>Percent Change of Total Employment 2016-2020</t>
+  </si>
+  <si>
+    <t>Percent Change of Wage and Salaried Employment 2016-2020</t>
+  </si>
+  <si>
+    <t>2016-2020</t>
+  </si>
+  <si>
+    <t>2020-2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -643,10 +733,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -929,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -941,11 +1030,11 @@
     <col min="4" max="4" width="35.44140625" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="79.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" customWidth="1"/>
+    <col min="10" max="10" width="57.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="79.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -959,1505 +1048,1674 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>175</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>174</v>
-      </c>
-      <c r="J4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K9" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="K10" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>179</v>
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>62</v>
+        <v>70</v>
+      </c>
+      <c r="K13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>183</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="K14" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>2020</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>62</v>
+        <v>78</v>
+      </c>
+      <c r="K15" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>80</v>
+      </c>
+      <c r="D16" t="s">
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="J16" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>75</v>
+        <v>88</v>
+      </c>
+      <c r="K17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K18" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>95</v>
+      </c>
+      <c r="D19" t="s">
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" t="s">
-        <v>84</v>
+        <v>98</v>
+      </c>
+      <c r="G19">
+        <v>2022</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="I19" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" t="s">
-        <v>41</v>
+        <v>98</v>
+      </c>
+      <c r="G20">
+        <v>2022</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="K20" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>107</v>
+      </c>
+      <c r="D21" t="s">
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I21" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="J21" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="K21" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>113</v>
+      </c>
+      <c r="D22" t="s">
+        <v>114</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="K22" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>117</v>
+      </c>
+      <c r="D23" t="s">
+        <v>118</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="J23" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="K23" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>121</v>
+      </c>
+      <c r="D24" t="s">
+        <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="H24" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I24" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>108</v>
+        <v>125</v>
+      </c>
+      <c r="K24" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" t="s">
         <v>130</v>
       </c>
-      <c r="E25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" t="s">
-        <v>110</v>
-      </c>
-      <c r="J25" t="s">
-        <v>111</v>
-      </c>
       <c r="K25" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>133</v>
+      </c>
+      <c r="D26" t="s">
+        <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H26" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I26" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="J26" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="K26" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>138</v>
+      </c>
+      <c r="D27" t="s">
+        <v>139</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I27" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="J27" t="s">
-        <v>116</v>
+        <v>140</v>
+      </c>
+      <c r="K27" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="E28" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29" s="1"/>
+        <v>146</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="E29" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>124</v>
+        <v>148</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="E30" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>154</v>
+      </c>
+      <c r="D31" t="s">
+        <v>155</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>8</v>
+        <v>157</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>158</v>
+      </c>
+      <c r="D32" t="s">
+        <v>159</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" t="s">
+        <v>171</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" t="s">
+        <v>174</v>
+      </c>
+      <c r="D35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="F35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2021</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C35" t="s">
-        <v>142</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="C36" t="s">
-        <v>143</v>
+        <v>178</v>
+      </c>
+      <c r="D36" t="s">
+        <v>179</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>13</v>
+        <v>98</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2020</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="C37" t="s">
-        <v>144</v>
+        <v>181</v>
+      </c>
+      <c r="D37" t="s">
+        <v>182</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="C38" t="s">
-        <v>145</v>
+        <v>184</v>
+      </c>
+      <c r="D38" t="s">
+        <v>185</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C39" t="s">
-        <v>146</v>
+        <v>186</v>
+      </c>
+      <c r="D39" t="s">
+        <v>187</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" t="s">
+        <v>189</v>
+      </c>
+      <c r="D40" t="s">
+        <v>190</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C40" t="s">
-        <v>147</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F40" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C41" t="s">
-        <v>148</v>
+        <v>192</v>
+      </c>
+      <c r="D41" t="s">
+        <v>193</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C42" t="s">
-        <v>149</v>
+        <v>195</v>
+      </c>
+      <c r="D42" t="s">
+        <v>196</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C43" t="s">
-        <v>150</v>
+        <v>198</v>
+      </c>
+      <c r="D43" t="s">
+        <v>199</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C44" t="s">
-        <v>151</v>
+        <v>201</v>
+      </c>
+      <c r="D44" t="s">
+        <v>202</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="C45" t="s">
+        <v>204</v>
+      </c>
+      <c r="D45" t="s">
+        <v>205</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" t="s">
+        <v>207</v>
+      </c>
+      <c r="D46" t="s">
+        <v>215</v>
+      </c>
+      <c r="E46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" t="s">
+        <v>208</v>
+      </c>
+      <c r="K46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" t="s">
+        <v>209</v>
+      </c>
+      <c r="D47" t="s">
+        <v>216</v>
+      </c>
+      <c r="E47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" t="s">
+        <v>23</v>
+      </c>
+      <c r="J47" t="s">
+        <v>210</v>
+      </c>
+      <c r="K47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>152</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C46" t="s">
-        <v>184</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" t="s">
-        <v>185</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>139</v>
+      <c r="B48" t="s">
+        <v>164</v>
       </c>
       <c r="C48" t="s">
-        <v>186</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>83</v>
+        <v>211</v>
+      </c>
+      <c r="D48" t="s">
+        <v>218</v>
+      </c>
+      <c r="E48" t="s">
+        <v>167</v>
+      </c>
+      <c r="F48" t="s">
+        <v>98</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>139</v>
+        <v>219</v>
+      </c>
+      <c r="H48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" t="s">
+        <v>212</v>
+      </c>
+      <c r="K48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" t="s">
+        <v>164</v>
       </c>
       <c r="C49" t="s">
-        <v>187</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>83</v>
+        <v>213</v>
+      </c>
+      <c r="D49" t="s">
+        <v>217</v>
+      </c>
+      <c r="E49" t="s">
+        <v>167</v>
+      </c>
+      <c r="F49" t="s">
+        <v>98</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>8</v>
+        <v>219</v>
+      </c>
+      <c r="H49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" t="s">
+        <v>214</v>
+      </c>
+      <c r="K49" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/indicator_definitions_updated.xlsx
+++ b/indicator_definitions_updated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cornd\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e053c53d61b8413/Documents/GitHub/CED-Housing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729809DF-B03D-439B-9D74-6F05F432DB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{729809DF-B03D-439B-9D74-6F05F432DB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A1B3FCA-8877-48F7-8A84-07DA8634FF67}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indicators" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="224">
   <si>
     <t>Group</t>
   </si>
@@ -127,9 +127,6 @@
     <t>AverageEvictionFilingsPer1000Households</t>
   </si>
   <si>
-    <t>Average Eviction Filing</t>
-  </si>
-  <si>
     <t>IALegalAid</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>A high eviction rate indicates stress between renters and landlords and possible need for eviction prevention programs</t>
   </si>
   <si>
-    <t>PercentChgEvictionFilings</t>
-  </si>
-  <si>
     <t>Eviction Filing trend</t>
   </si>
   <si>
@@ -343,9 +337,6 @@
     <t>A very low number suggests high demand for homes that could bid up prices</t>
   </si>
   <si>
-    <t>InventoryOfHomesForSale</t>
-  </si>
-  <si>
     <t>Single-family home inventory ratio</t>
   </si>
   <si>
@@ -532,9 +523,6 @@
     <t>Economy</t>
   </si>
   <si>
-    <t>Ann_pct_emp_chg_2010-19</t>
-  </si>
-  <si>
     <t>Average employment growth</t>
   </si>
   <si>
@@ -547,9 +535,6 @@
     <t>Average annual employment growth rate, 2010-19</t>
   </si>
   <si>
-    <t>Pct_emp_chg_2019-20</t>
-  </si>
-  <si>
     <t>Employment change rate</t>
   </si>
   <si>
@@ -698,6 +683,30 @@
   </si>
   <si>
     <t>2020-2022</t>
+  </si>
+  <si>
+    <t>Ann_pct_emp_chg_2010.19</t>
+  </si>
+  <si>
+    <t>Pct_emp_chg_2019.20</t>
+  </si>
+  <si>
+    <t>EvictionLabIncidencePer1000RenterHouseholds</t>
+  </si>
+  <si>
+    <t>Average Eviction Filing Eviction Lab</t>
+  </si>
+  <si>
+    <t>Average Eviction Filing Legal Aid</t>
+  </si>
+  <si>
+    <t>Eviction Lab</t>
+  </si>
+  <si>
+    <t>EvictionFilings2021.2019</t>
+  </si>
+  <si>
+    <t>InventoryOfHomesForSalesPer1000Households</t>
   </si>
 </sst>
 </file>
@@ -1016,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1176,28 +1185,28 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>218</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>219</v>
       </c>
       <c r="E5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
         <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
       </c>
       <c r="I5" t="s">
         <v>23</v>
       </c>
       <c r="J5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
         <v>33</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1208,28 +1217,28 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
         <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
       </c>
       <c r="I6" t="s">
         <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1240,31 +1249,28 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>222</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="H7" t="s">
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1275,31 +1281,31 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
         <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1307,31 +1313,34 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1339,13 +1348,13 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
         <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
@@ -1360,10 +1369,10 @@
         <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1371,16 +1380,16 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -1392,27 +1401,27 @@
         <v>23</v>
       </c>
       <c r="J11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
@@ -1424,65 +1433,62 @@
         <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="K12" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
         <v>61</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>62</v>
       </c>
-      <c r="C13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" t="s">
-        <v>69</v>
-      </c>
       <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" t="s">
         <v>65</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="H14" t="s">
         <v>17</v>
@@ -1491,33 +1497,33 @@
         <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
-      <c r="G15">
-        <v>2020</v>
+      <c r="G15" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H15" t="s">
         <v>17</v>
@@ -1526,348 +1532,348 @@
         <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>42</v>
+      <c r="G16">
+        <v>2020</v>
       </c>
       <c r="H16" t="s">
         <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
         <v>79</v>
       </c>
-      <c r="C17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" t="s">
-        <v>85</v>
-      </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
       </c>
-      <c r="G17" t="s">
-        <v>87</v>
+      <c r="G17" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J17" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I18" t="s">
         <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K18" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19">
-        <v>2022</v>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>85</v>
       </c>
       <c r="H19" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="I19" t="s">
         <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" t="s">
         <v>94</v>
       </c>
-      <c r="C20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" t="s">
-        <v>103</v>
-      </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G20">
         <v>2022</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="I20" t="s">
         <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>223</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>42</v>
+        <v>96</v>
+      </c>
+      <c r="G21">
+        <v>2022</v>
       </c>
       <c r="H21" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="I21" t="s">
         <v>18</v>
       </c>
       <c r="J21" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="K21" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I22" t="s">
         <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="K22" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" t="s">
         <v>111</v>
       </c>
-      <c r="B23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" t="s">
-        <v>118</v>
-      </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I23" t="s">
         <v>18</v>
       </c>
       <c r="J23" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K23" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" t="s">
-        <v>124</v>
+        <v>16</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H24" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="I24" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J24" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K24" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E25" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G25" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="H25" t="s">
         <v>17</v>
@@ -1876,33 +1882,33 @@
         <v>23</v>
       </c>
       <c r="J25" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="K25" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>42</v>
+        <v>96</v>
+      </c>
+      <c r="G26" t="s">
+        <v>85</v>
       </c>
       <c r="H26" t="s">
         <v>17</v>
@@ -1911,33 +1917,33 @@
         <v>23</v>
       </c>
       <c r="J26" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K26" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s">
         <v>17</v>
@@ -1946,147 +1952,147 @@
         <v>23</v>
       </c>
       <c r="J27" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="K27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>145</v>
+      <c r="K28" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C31" t="s">
-        <v>154</v>
-      </c>
-      <c r="D31" t="s">
-        <v>155</v>
+        <v>109</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>10</v>
@@ -2094,25 +2100,25 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C32" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" t="s">
-        <v>159</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>17</v>
@@ -2121,7 +2127,7 @@
         <v>18</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>10</v>
@@ -2129,25 +2135,25 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>166</v>
+        <v>150</v>
+      </c>
+      <c r="C33" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" t="s">
+        <v>156</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>17</v>
@@ -2156,7 +2162,7 @@
         <v>18</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>10</v>
@@ -2164,25 +2170,25 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C34" t="s">
-        <v>170</v>
-      </c>
-      <c r="D34" t="s">
-        <v>171</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>17</v>
@@ -2191,7 +2197,7 @@
         <v>18</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>10</v>
@@ -2199,34 +2205,34 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C35" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="D35" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G35" s="1">
-        <v>2021</v>
+        <v>96</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>10</v>
@@ -2234,25 +2240,25 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C36" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D36" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G36" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>17</v>
@@ -2261,7 +2267,7 @@
         <v>23</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>10</v>
@@ -2269,32 +2275,34 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C37" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D37" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2020</v>
+      </c>
       <c r="H37" s="1" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>10</v>
@@ -2302,32 +2310,32 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C38" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D38" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>10</v>
@@ -2335,34 +2343,32 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C39" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D39" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="1">
-        <v>2020</v>
-      </c>
+      <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>10</v>
@@ -2370,34 +2376,34 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C40" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D40" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>42</v>
+      <c r="G40" s="1">
+        <v>2020</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>10</v>
@@ -2405,34 +2411,34 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C41" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D41" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>10</v>
@@ -2440,34 +2446,34 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C42" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D42" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>10</v>
@@ -2475,34 +2481,34 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C43" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D43" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>10</v>
@@ -2510,25 +2516,25 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C44" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D44" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>17</v>
@@ -2537,7 +2543,7 @@
         <v>23</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>10</v>
@@ -2545,25 +2551,25 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C45" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D45" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>17</v>
@@ -2572,59 +2578,59 @@
         <v>23</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46" t="s">
-        <v>137</v>
+      <c r="A46" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="C46" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D46" t="s">
-        <v>215</v>
-      </c>
-      <c r="E46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" t="s">
+        <v>200</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H46" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J46" t="s">
-        <v>208</v>
-      </c>
-      <c r="K46" t="s">
+      <c r="J46" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C47" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D47" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E47" t="s">
         <v>22</v>
@@ -2633,7 +2639,7 @@
         <v>16</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H47" t="s">
         <v>17</v>
@@ -2642,7 +2648,7 @@
         <v>23</v>
       </c>
       <c r="J47" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="K47" t="s">
         <v>10</v>
@@ -2650,34 +2656,34 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="B48" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="C48" t="s">
+        <v>204</v>
+      </c>
+      <c r="D48" t="s">
         <v>211</v>
       </c>
-      <c r="D48" t="s">
-        <v>218</v>
-      </c>
       <c r="E48" t="s">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="F48" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H48" t="s">
         <v>17</v>
       </c>
       <c r="I48" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J48" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="K48" t="s">
         <v>10</v>
@@ -2685,25 +2691,25 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B49" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C49" t="s">
+        <v>206</v>
+      </c>
+      <c r="D49" t="s">
         <v>213</v>
       </c>
-      <c r="D49" t="s">
-        <v>217</v>
-      </c>
       <c r="E49" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H49" t="s">
         <v>17</v>
@@ -2712,9 +2718,44 @@
         <v>18</v>
       </c>
       <c r="J49" t="s">
+        <v>207</v>
+      </c>
+      <c r="K49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" t="s">
+        <v>208</v>
+      </c>
+      <c r="D50" t="s">
+        <v>212</v>
+      </c>
+      <c r="E50" t="s">
+        <v>163</v>
+      </c>
+      <c r="F50" t="s">
+        <v>96</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="K49" t="s">
+      <c r="H50" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" t="s">
+        <v>209</v>
+      </c>
+      <c r="K50" t="s">
         <v>10</v>
       </c>
     </row>

--- a/indicator_definitions_updated.xlsx
+++ b/indicator_definitions_updated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e053c53d61b8413/Documents/GitHub/CED-Housing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cornd\OneDrive\Documents\GitHub\CED-Housing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{729809DF-B03D-439B-9D74-6F05F432DB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A1B3FCA-8877-48F7-8A84-07DA8634FF67}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9F1C16-73DA-418A-933B-71D70EB9B3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indicators" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="239">
   <si>
     <t>Group</t>
   </si>
@@ -97,6 +97,9 @@
     <t>USDA Section 515-funded units as a percentage of total housing units</t>
   </si>
   <si>
+    <t>The matter of funded units is an equity and affordability matter as the  USDA Section 515 program provides direct loans to eligible rural residents to afford economic housing and facilities for very low- to moderate-income; elderly; and individuals with disabilities. The higher the proportion of this indicator, the more equitable options available for groups of vulnerable population.</t>
+  </si>
+  <si>
     <t>PercentLIHTCperHousehold</t>
   </si>
   <si>
@@ -112,13 +115,19 @@
     <t>LIHTC-funded units as a percentage of total housing units</t>
   </si>
   <si>
+    <t>Based on HUD, the Low-Income Housing Tax Credit (LIHTC) program is the most important resource for creating affordable housing in the United States today. The higher the proportion of this indicator, the more equitable housing options available to low income households.</t>
+  </si>
+  <si>
     <t>PercentMultiFamAssistPerHouseold</t>
   </si>
   <si>
     <t>Multi-Family rate</t>
   </si>
   <si>
-    <t>Description?</t>
+    <t>The percentage of multi-family style homes of all residential units.</t>
+  </si>
+  <si>
+    <t>Multi-family housing has benefits such as higher density and diversity.  Thoughtfully located multi-family structures provide efficiency of land use and allow residents to reach destinations with less individual car usage.</t>
   </si>
   <si>
     <t>Demographic</t>
@@ -127,6 +136,9 @@
     <t>AverageEvictionFilingsPer1000Households</t>
   </si>
   <si>
+    <t>Average Eviction Filing</t>
+  </si>
+  <si>
     <t>IALegalAid</t>
   </si>
   <si>
@@ -484,6 +496,9 @@
     <t>Median value of owner-occupied homes</t>
   </si>
   <si>
+    <t>A higher median for owner-occupied houses is a benefit to the owners but the general beneficiary feature of this indicator depends on the context.</t>
+  </si>
+  <si>
     <t>Other</t>
   </si>
   <si>
@@ -502,6 +517,9 @@
     <t>10-year percentage change in total population</t>
   </si>
   <si>
+    <t xml:space="preserve">Change in population can be a result of housing stock changes and availability. A shrinking population might be a result of lack of adequate housing stock availble. </t>
+  </si>
+  <si>
     <t>Pct_PK12_enrollchg_10yr</t>
   </si>
   <si>
@@ -520,6 +538,9 @@
     <t>10-year percentage change in PK-12 public school enrollment</t>
   </si>
   <si>
+    <t>Change in public scholl enrolment has direct effect on housing need. Students who are graduated and are in legal age of independent life, can develop the need fpor housing stock.</t>
+  </si>
+  <si>
     <t>Economy</t>
   </si>
   <si>
@@ -535,7 +556,7 @@
     <t>Average annual employment growth rate, 2010-19</t>
   </si>
   <si>
-    <t>Employment change rate</t>
+    <t xml:space="preserve">Local employment growth indicates economic vitality and may increase demand for housing.  </t>
   </si>
   <si>
     <t>2019-20</t>
@@ -544,6 +565,9 @@
     <t>Percentage change in employment, 2019-20</t>
   </si>
   <si>
+    <t>A higher rate of job loss during in 2020 suggests a relatively greater local economic effect of the COVID-19 pandemic.</t>
+  </si>
+  <si>
     <t>Unemp_rate_2021</t>
   </si>
   <si>
@@ -556,6 +580,9 @@
     <t>Unemployed percentage of the labor force</t>
   </si>
   <si>
+    <t>The unemployment rate has direct connection with household economic stress.  The higher the rate of unemployment, the higher the probability of temporary or permanent income reduction, housing cost burden, and homelessness.</t>
+  </si>
+  <si>
     <t>Pct_transfer_pmt_dependence</t>
   </si>
   <si>
@@ -565,6 +592,9 @@
     <t>Percentage of personal income from government transfer payments</t>
   </si>
   <si>
+    <t>A higher fraction of income from fixed retirement or disability payments, income assistance, and other transfer programs may lower the ability of households to meet rising housing costs.</t>
+  </si>
+  <si>
     <t>Prop_tax_capacity_ratio</t>
   </si>
   <si>
@@ -574,6 +604,9 @@
     <t>IA_DOM</t>
   </si>
   <si>
+    <t>A higher property tax capacity indicates a comparatively higher property-based wealth for the communityability to generate revenues from property taxes</t>
+  </si>
+  <si>
     <t>Prop_tax_effort_ratio</t>
   </si>
   <si>
@@ -589,6 +622,9 @@
     <t>Index of racial and ethnic diversity</t>
   </si>
   <si>
+    <t>Higher diversity in housing indicates, higher inclusionary features of the housing stock.</t>
+  </si>
+  <si>
     <t>Gini_index_income_inequality_EST</t>
   </si>
   <si>
@@ -598,6 +634,9 @@
     <t>Index of income inequality</t>
   </si>
   <si>
+    <t>Higher income inequality index shows lack of equality in income and as a result higher pressure on low-income households of communities.</t>
+  </si>
+  <si>
     <t>Pct_prime_working_age_EST</t>
   </si>
   <si>
@@ -607,6 +646,9 @@
     <t>Percentage of the population of prime working age (25-54 years)</t>
   </si>
   <si>
+    <t>Higher proportion of working adults means more ability of the community in provision of housing needs.</t>
+  </si>
+  <si>
     <t>Old_age_dependency_ratio_EST</t>
   </si>
   <si>
@@ -616,6 +658,9 @@
     <t>Ratio of elderly (65+ years) to working-age population</t>
   </si>
   <si>
+    <t>Elderly ratio describes a part of community who are more exposed to risk factors of their living spaces and have more specific needs in their housing.</t>
+  </si>
+  <si>
     <t>Pct_language_barrier_EST</t>
   </si>
   <si>
@@ -625,6 +670,9 @@
     <t>Percentage of the population speaking English less than "very well"</t>
   </si>
   <si>
+    <t>Linguistic barrier can cause bureaucratic issues for non-English population.</t>
+  </si>
+  <si>
     <t>Pct_disability_EST</t>
   </si>
   <si>
@@ -634,6 +682,9 @@
     <t>Percentage of the population with a disability</t>
   </si>
   <si>
+    <t>Disability percentage describes a part of community who are more exposed to risk factors of their living spaces and have more specific needs in their housing.</t>
+  </si>
+  <si>
     <t>Pct_poverty_EST</t>
   </si>
   <si>
@@ -643,15 +694,24 @@
     <t>Percentage of the population with income below the poverty level</t>
   </si>
   <si>
+    <t>The higher the percentage of people in poverty, the higher the need for government-dependent, funded and affordable housing.</t>
+  </si>
+  <si>
     <t>PrcntChangeFMR2016_2020</t>
   </si>
   <si>
+    <t>2016-2020</t>
+  </si>
+  <si>
     <t>Percent Change of the Fair Market Rent of a 2 Bedroom Apartment from 2016 to 2020</t>
   </si>
   <si>
     <t>PrcntChangeFMR2020_2022</t>
   </si>
   <si>
+    <t>2020-2022</t>
+  </si>
+  <si>
     <t>Percent Change of the Fair Market Rent of a 2 Bedroom Apartment from 2020 to 2022</t>
   </si>
   <si>
@@ -667,43 +727,28 @@
     <t>Percent Change of Total and Salaried Employment from 2016 to 2020</t>
   </si>
   <si>
-    <t>Percent Change of Fair Market Rent 2016-2020</t>
-  </si>
-  <si>
-    <t>Percent Change of Fair Market Rent 2020-2022</t>
-  </si>
-  <si>
-    <t>Percent Change of Total Employment 2016-2020</t>
-  </si>
-  <si>
-    <t>Percent Change of Wage and Salaried Employment 2016-2020</t>
-  </si>
-  <si>
-    <t>2016-2020</t>
-  </si>
-  <si>
-    <t>2020-2022</t>
+    <t>Recent Employment change rate</t>
+  </si>
+  <si>
+    <t>5 year total employment change rate</t>
+  </si>
+  <si>
+    <t>5 year wage and salaried employment change rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 year Fair Market Rent Change </t>
+  </si>
+  <si>
+    <t>Recent Fair Market Rent Change</t>
+  </si>
+  <si>
+    <t>EvictionFilings2021.2019</t>
   </si>
   <si>
     <t>Ann_pct_emp_chg_2010.19</t>
   </si>
   <si>
     <t>Pct_emp_chg_2019.20</t>
-  </si>
-  <si>
-    <t>EvictionLabIncidencePer1000RenterHouseholds</t>
-  </si>
-  <si>
-    <t>Average Eviction Filing Eviction Lab</t>
-  </si>
-  <si>
-    <t>Average Eviction Filing Legal Aid</t>
-  </si>
-  <si>
-    <t>Eviction Lab</t>
-  </si>
-  <si>
-    <t>EvictionFilings2021.2019</t>
   </si>
   <si>
     <t>InventoryOfHomesForSalesPer1000Households</t>
@@ -722,12 +767,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -742,9 +793,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1025,23 +1086,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.44140625" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" customWidth="1"/>
     <col min="10" max="10" width="57.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="79.44140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1081,7 +1142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1104,16 +1165,16 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1121,13 +1182,13 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -1136,16 +1197,16 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1153,10 +1214,10 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -1168,77 +1229,77 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>218</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>221</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1246,31 +1307,34 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="H7" t="s">
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1278,34 +1342,34 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
         <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1313,34 +1377,31 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" t="s">
-        <v>47</v>
+        <v>55</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1348,16 +1409,16 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -1366,13 +1427,13 @@
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" t="s">
-        <v>52</v>
+        <v>59</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1380,16 +1441,16 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -1398,30 +1459,30 @@
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" t="s">
-        <v>52</v>
+        <v>62</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
@@ -1430,30 +1491,30 @@
         <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
-      </c>
-      <c r="K12" t="s">
-        <v>52</v>
+        <v>68</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
@@ -1462,33 +1523,36 @@
         <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" t="s">
-        <v>65</v>
+        <v>72</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="H14" t="s">
         <v>17</v>
@@ -1497,33 +1561,33 @@
         <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>68</v>
-      </c>
-      <c r="K14" t="s">
-        <v>69</v>
+        <v>76</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>40</v>
+      <c r="G15">
+        <v>2020</v>
       </c>
       <c r="H15" t="s">
         <v>17</v>
@@ -1532,628 +1596,628 @@
         <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>72</v>
-      </c>
-      <c r="K15" t="s">
-        <v>69</v>
+        <v>80</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
       </c>
-      <c r="G16">
-        <v>2020</v>
+      <c r="G16" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="H16" t="s">
         <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K16" t="s">
-        <v>69</v>
+        <v>84</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>40</v>
+      <c r="G17" t="s">
+        <v>89</v>
       </c>
       <c r="H17" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" t="s">
-        <v>81</v>
+        <v>90</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s">
         <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>86</v>
-      </c>
-      <c r="K18" t="s">
-        <v>87</v>
+        <v>94</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s">
-        <v>85</v>
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>2022</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="I19" t="s">
         <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>90</v>
-      </c>
-      <c r="K19" t="s">
-        <v>91</v>
+        <v>102</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>238</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G20">
         <v>2022</v>
       </c>
       <c r="H20" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s">
         <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>98</v>
-      </c>
-      <c r="K20" t="s">
-        <v>99</v>
+        <v>105</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21">
-        <v>2022</v>
+        <v>16</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="I21" t="s">
         <v>18</v>
       </c>
       <c r="J21" t="s">
-        <v>101</v>
-      </c>
-      <c r="K21" t="s">
-        <v>102</v>
+        <v>110</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I22" t="s">
         <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>106</v>
-      </c>
-      <c r="K22" t="s">
-        <v>107</v>
+        <v>116</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I23" t="s">
         <v>18</v>
       </c>
       <c r="J23" t="s">
-        <v>112</v>
-      </c>
-      <c r="K23" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>40</v>
+        <v>100</v>
+      </c>
+      <c r="G24" t="s">
+        <v>125</v>
       </c>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="I24" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J24" t="s">
-        <v>116</v>
-      </c>
-      <c r="K24" t="s">
-        <v>117</v>
+        <v>126</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D25" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E25" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G25" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s">
         <v>17</v>
       </c>
       <c r="I25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>122</v>
-      </c>
-      <c r="K25" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E26" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" t="s">
-        <v>85</v>
+        <v>16</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="H26" t="s">
         <v>17</v>
       </c>
       <c r="I26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J26" t="s">
-        <v>127</v>
-      </c>
-      <c r="K26" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s">
         <v>17</v>
       </c>
       <c r="I27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J27" t="s">
-        <v>132</v>
-      </c>
-      <c r="K27" t="s">
+        <v>141</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" t="s">
-        <v>135</v>
-      </c>
-      <c r="D28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E28" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" t="s">
-        <v>137</v>
-      </c>
-      <c r="K28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>23</v>
+      <c r="I30" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
+      </c>
+      <c r="C31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" t="s">
+        <v>157</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C32" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D32" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>10</v>
+        <v>166</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C33" t="s">
-        <v>155</v>
-      </c>
-      <c r="D33" t="s">
-        <v>156</v>
+        <v>168</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>17</v>
@@ -2162,33 +2226,33 @@
         <v>18</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
+      </c>
+      <c r="C34" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34" t="s">
+        <v>230</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>17</v>
@@ -2197,458 +2261,458 @@
         <v>18</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C35" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="D35" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>167</v>
+        <v>100</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2021</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" t="s">
+        <v>182</v>
+      </c>
+      <c r="D36" t="s">
+        <v>183</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" t="s">
+        <v>187</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C36" t="s">
-        <v>169</v>
-      </c>
-      <c r="D36" t="s">
-        <v>170</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G36" s="1">
-        <v>2021</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C37" t="s">
-        <v>173</v>
-      </c>
-      <c r="D37" t="s">
-        <v>174</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G37" s="1">
-        <v>2020</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="J37" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>10</v>
+        <v>187</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C38" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="D38" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K38" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K38" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C39" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="D39" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1">
+        <v>2020</v>
+      </c>
       <c r="H39" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C40" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="D40" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="1">
-        <v>2020</v>
+      <c r="G40" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" t="s">
+        <v>200</v>
+      </c>
+      <c r="D41" t="s">
+        <v>201</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C41" t="s">
-        <v>184</v>
-      </c>
-      <c r="D41" t="s">
-        <v>185</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="J41" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C42" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="D42" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>10</v>
+        <v>206</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C43" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="D43" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="I43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" t="s">
+        <v>212</v>
+      </c>
+      <c r="D44" t="s">
+        <v>213</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" t="s">
+        <v>216</v>
+      </c>
+      <c r="D45" t="s">
+        <v>217</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" t="s">
+        <v>220</v>
+      </c>
+      <c r="D46" t="s">
+        <v>233</v>
+      </c>
+      <c r="E46" t="s">
         <v>23</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C44" t="s">
-        <v>193</v>
-      </c>
-      <c r="D44" t="s">
-        <v>194</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C45" t="s">
-        <v>196</v>
-      </c>
-      <c r="D45" t="s">
-        <v>197</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C46" t="s">
-        <v>199</v>
-      </c>
-      <c r="D46" t="s">
-        <v>200</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="K46" s="1" t="s">
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>221</v>
+      </c>
+      <c r="H46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" t="s">
+        <v>222</v>
+      </c>
+      <c r="K46" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B47" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C47" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="D47" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="E47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>214</v>
+      <c r="G47" t="s">
+        <v>224</v>
       </c>
       <c r="H47" t="s">
         <v>17</v>
       </c>
       <c r="I47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J47" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="K47" t="s">
         <v>10</v>
@@ -2656,34 +2720,34 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="C48" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="D48" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="E48" t="s">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>215</v>
+        <v>100</v>
+      </c>
+      <c r="G48" t="s">
+        <v>221</v>
       </c>
       <c r="H48" t="s">
         <v>17</v>
       </c>
       <c r="I48" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J48" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="K48" t="s">
         <v>10</v>
@@ -2691,25 +2755,25 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B49" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C49" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="D49" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="E49" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>214</v>
+        <v>100</v>
+      </c>
+      <c r="G49" t="s">
+        <v>221</v>
       </c>
       <c r="H49" t="s">
         <v>17</v>
@@ -2718,44 +2782,9 @@
         <v>18</v>
       </c>
       <c r="J49" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="K49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>149</v>
-      </c>
-      <c r="B50" t="s">
-        <v>161</v>
-      </c>
-      <c r="C50" t="s">
-        <v>208</v>
-      </c>
-      <c r="D50" t="s">
-        <v>212</v>
-      </c>
-      <c r="E50" t="s">
-        <v>163</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H50" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" t="s">
-        <v>18</v>
-      </c>
-      <c r="J50" t="s">
-        <v>209</v>
-      </c>
-      <c r="K50" t="s">
         <v>10</v>
       </c>
     </row>
